--- a/zywork-app/documents/接口说明.xlsx
+++ b/zywork-app/documents/接口说明.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5434140E-3A7C-4645-9DBC-2035F3F7F67D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C6DAD-E38C-4FB1-8C1D-CFC8ABDBB1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,37 @@
   <si>
     <t>获取招标对应的开标拼车信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/advertisement/any/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/headlines/any/pager-cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/headlines/any/one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/user/pager-cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/user/one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mark-carpool/user/getByProjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projecannounce/user/getByProjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/user/one</t>
   </si>
 </sst>
 </file>
@@ -486,7 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -543,6 +576,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
@@ -563,6 +599,9 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -586,6 +625,9 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
@@ -609,6 +651,9 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -649,6 +694,9 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
@@ -672,6 +720,9 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -695,6 +746,9 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -718,6 +772,9 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -740,6 +797,9 @@
       </c>
       <c r="D11" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/zywork-app/documents/接口说明.xlsx
+++ b/zywork-app/documents/接口说明.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C6DAD-E38C-4FB1-8C1D-CFC8ABDBB1BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FC769-D3B9-4BEB-A44C-49354C99C96B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="136">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,16 +68,10 @@
   </si>
   <si>
     <t>user</t>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>any</t>
-  </si>
-  <si>
-    <t>any</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,9 +84,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目介绍信息接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公示详情接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取招标对应的开标拼车信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/advertisement/any/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,23 +147,420 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/project/user/pager-cond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/user/one</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mark-carpool/user/getByProjectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/projecannounce/user/getByProjectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/project/user/one</t>
+    <t>/project/any/list-pager-cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/any/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projecannounce/any/getByProjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质转让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开标拼车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位招聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求带资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取资质转让信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取岗位招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取求带资料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserBuilder/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserBuilderReq/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserAptitudeTransfer/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserMarkCarpool/any/list-page</t>
+  </si>
+  <si>
+    <t>/UserMarkSeekcar/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取开标拼车--我要找车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取开标拼车--我是车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取建造师--应聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取建造师--招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserRecruit/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserSeekData/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布建造师--应聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布建造师--招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/builder/user/release-builder</t>
+  </si>
+  <si>
+    <t>/builder-req/user/release-builderReq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布资质转让</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/aptitude-transfer/user/release-aptitudeTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布开标拼车--我是车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布开标拼车--我要找车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mark-carpool/user/release-markCarpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mark-seekcar/user/release-markSeekcar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/recruit/user/release-recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布岗位招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/seek-data/user/release-seekData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布求带资料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscribe/user/getByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/subscribe/user/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的订阅信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存/修改我的订阅信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造师-- 应聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造师--招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心--我发布的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开标拼车--我是车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开标拼车--我要找车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的建造师--应聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的建造师--招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的资质转让信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的开标拼车--我是车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的开标拼车--我要找车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获我发布的取岗位招聘信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我发布的求带资料信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/user/list-projectCollection-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏--取消收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projeccollection/user/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expersubscribe/user/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的咨询反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的咨询反馈 -- 我要咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取咨询反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存我的咨询反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/consult/user/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/consult/user/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resume/user/getByUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/resume/user/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的简历--保存简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据userId获取简历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存我的简历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵扣券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵扣券使用记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我的抵扣券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我使用的抵扣券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/coupon-record/user/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题</t>
+  </si>
+  <si>
+    <t>分页获取常见问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/often-question/user/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user-coupon/user/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见问题--详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据id获取常见问题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/often-question/user/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserAptitudeTransfer/user/list-aptitudeTransfer-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserBuilder/user/list-builder-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserBuilderReq/user/list-builderReq-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserMarkCarpool/user/list-markCarpool-page</t>
+  </si>
+  <si>
+    <t>/UserMarkSeekcar/user/list-markSeekcar-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserRecruit/user/list-recruit-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserSeekData/user/list-seekData-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projeccollection/user/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-招标信息-公示详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏-招标信息-开标搭车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取公示详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取开标搭车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页获取我的预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/UserMarkCarpool/any/list-page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开标搭车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,9 +612,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,26 +898,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,22 +933,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,19 +956,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -597,22 +970,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,25 +987,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -646,25 +1007,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,19 +1027,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,22 +1041,16 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -715,25 +1058,19 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -741,25 +1078,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -767,25 +1095,19 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -793,22 +1115,692 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -817,18 +1809,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FA83B9-2B56-4EE2-9404-DEC53CED7CC1}">
-          <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F101</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E69B79F3-6C1F-41A3-A150-5FCCE0F4440C}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G101 H2:H8 I2:I101</xm:sqref>
+          <xm:sqref>G2:G8 F2:F113 H2:H113</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -851,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -859,20 +1845,20 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
